--- a/docs/ValueSet-KindLabReportVS.xlsx
+++ b/docs/ValueSet-KindLabReportVS.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from diagnosticServic" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-KindLabReportVS.xlsx
+++ b/docs/ValueSet-KindLabReportVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
